--- a/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
+++ b/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\ISO29110\เอกสารแนบ ISO complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICT APP HOUSE\เอกสารแนบ ISO complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>no.</t>
   </si>
@@ -44,82 +44,10 @@
     <t>none</t>
   </si>
   <si>
-    <t>alumn_ register, alumni_register_name</t>
-  </si>
-  <si>
-    <t>alumni_register, alumni_register_name</t>
-  </si>
-  <si>
     <t>Source Code (module)</t>
   </si>
   <si>
     <t>Test Cases</t>
-  </si>
-  <si>
-    <t>TC01: กรณีแสดงข้อมูลประชาสัมพันธ์</t>
-  </si>
-  <si>
-    <t>UC01: เห็นข้อมูลประชาสัมพันธ์งานคืนสู่เหย้า</t>
-  </si>
-  <si>
-    <t>RE01: ประชาสัมพันธ์งานคืนสู่เหย้า</t>
-  </si>
-  <si>
-    <t>TC02: กรณีแสดงรายละเอียดติดต่อผู้ประสานงาน</t>
-  </si>
-  <si>
-    <t>RE02: มีส่วนให้รายละเอียดติดต่อผู้ประสานงาน</t>
-  </si>
-  <si>
-    <t>UC02: เห็นข้อมูลรายละเอียดติดต่อผู้ประสานงาน</t>
-  </si>
-  <si>
-    <t>UC06: เห็นข้อมูลในการติดต่อเจ้าหน้าที่</t>
-  </si>
-  <si>
-    <t>RE06: มีส่วนติดต่อเจ้าหน้าที่</t>
-  </si>
-  <si>
-    <t>UC05: เห็นรายละเอียดขั้นตอนการจอง/การชำระเงิน</t>
-  </si>
-  <si>
-    <t>RE05: มีส่วนแสดงรายละเอียดขั้นตอนการจอง การชำระเงิน</t>
-  </si>
-  <si>
-    <t>RE04: มีการแสดงผลการจอง /สถานะการจอง / ยอดค้างชำระ</t>
-  </si>
-  <si>
-    <t>RE03: มีระบบจอง / สำรองที่นั่ง</t>
-  </si>
-  <si>
-    <t>UC03: จองโต๊ะ/ที่นั่ง งานคืนสู่เหย้า</t>
-  </si>
-  <si>
-    <t>UC04: เห็นสถานะการจอง/ยอดค้างชำระ</t>
-  </si>
-  <si>
-    <t>TC03: กรณีเลือกจองโต๊ะ,TC04: กรณีเลือกจองที่นั่ง</t>
-  </si>
-  <si>
-    <t>TC05: กรณีแสดงผลการจอง / สถานะการจอง / ยอดค้างชำระ</t>
-  </si>
-  <si>
-    <t>TC06: กรณีแสดงรายระเอียดขั้นตอนการจอง การชำระเงิน</t>
-  </si>
-  <si>
-    <t>TC07: กรณีแสดงข้อมูลการติดต่อเจ้าหน้าที่</t>
-  </si>
-  <si>
-    <t>function : index</t>
-  </si>
-  <si>
-    <t>function : alumninight</t>
-  </si>
-  <si>
-    <t>function : alumniregister</t>
-  </si>
-  <si>
-    <t>function : staff</t>
   </si>
   <si>
     <t>ผู้รับรอง</t>
@@ -140,17 +68,161 @@
   </si>
   <si>
     <t>(………………..……………………………………..…..)</t>
+  </si>
+  <si>
+    <t>RE01: สามารถดาวน์โหลดทั้งตัวโปรเจคและเอกสาร</t>
+  </si>
+  <si>
+    <t>RE02: มีการจัดเก็บโปรเจคเป็นหมวดหมู่</t>
+  </si>
+  <si>
+    <t>RE04: มีส่วนติดต่อกับแอดมิน</t>
+  </si>
+  <si>
+    <t>RE05: มีระบบ Login</t>
+  </si>
+  <si>
+    <t>RE06: มีระบบสมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>UC04: ดาวน์โหลดแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC01: กรณีดาวน์โหลดแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>function : app_download_doc, app_download_file</t>
+  </si>
+  <si>
+    <t>UC07: ดูหมวดหมู่แอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC02: กรณีดูหมวกหมู่แอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC06: ค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE03: สามารถค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC12: ส่งข้อความ</t>
+  </si>
+  <si>
+    <t>TC03: กรณีค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC05: กรณีส่งข้อความ</t>
+  </si>
+  <si>
+    <t>UC01: กรอกชื่อผู้ใช้และรหัสผ่าน</t>
+  </si>
+  <si>
+    <t>function : search</t>
+  </si>
+  <si>
+    <t>UC08: สมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>function : register</t>
+  </si>
+  <si>
+    <t>TC07: กรณีสมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>TC06: กรณี login</t>
+  </si>
+  <si>
+    <t>RE08: สามารถให้คะแนนแอพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE07: สามารถสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC09: สร้าง ลบ แก้ไขกลุ่มโปรเจค                     </t>
+  </si>
+  <si>
+    <t>RE09: สามารถสร้าง ลบ แก้ไขแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC10: อัพโหลดรายละเอียดและรูปภาพของแอฟพลิเคชั่น                 UC11: อัพโหลดแอปพลิเคชั่น           UC13: ลบแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC05: ให้คะแนนแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC08: กรณีสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
+  </si>
+  <si>
+    <t>TC09: กรณีให้คะแนนแอปพลิชั่น</t>
+  </si>
+  <si>
+    <t>TC10: กรณีสร้าง ลบ แก้ไขแอพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE10: สมาชิกสามารถเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>UC02: สมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>TC11: กรณีสมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>RE11: สมาชิกแก้ไขข้อมูลของตนเอง</t>
+  </si>
+  <si>
+    <t>UC03 : จัดการข้อมมูลสมาชิก</t>
+  </si>
+  <si>
+    <t>TC12: กรณีสามชิกแก้ไขข้อมูลของตนเอง</t>
+  </si>
+  <si>
+    <t>function : index_app, get_page, slids_max_view, get_page_index_top_vote, get_page_index_top_view</t>
+  </si>
+  <si>
+    <t>function : __construct, is_valid, log</t>
+  </si>
+  <si>
+    <t>function : pm</t>
+  </si>
+  <si>
+    <t>function : vote</t>
+  </si>
+  <si>
+    <t>function : edit_profile</t>
+  </si>
+  <si>
+    <t>function : group, edit_profile_group</t>
+  </si>
+  <si>
+    <t>function : group, edit_profile_app, add_project ,delete_profile_app</t>
+  </si>
+  <si>
+    <t>function : comment, delete_comment, edit_comment</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>app_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -231,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,16 +330,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,7 +356,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -569,59 +642,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="8" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="22.5">
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5">
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,150 +708,253 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="44.25" customHeight="1">
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="90">
       <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1">
       <c r="B7" s="5">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="48" customHeight="1">
       <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="47.25" customHeight="1">
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" customHeight="1">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G15" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45">
+      <c r="B12" s="5">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="67.5">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="G17" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="G19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +973,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -809,7 +985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
+++ b/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICT APP HOUSE\เอกสารแนบ ISO complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.240.26.38\iso29110_59\เอกสารแนบ ISO complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,162 +56,162 @@
     <t>page 1/1</t>
   </si>
   <si>
-    <t xml:space="preserve">เอกสารการตามรอยซอฟต์แวร์ (Traceability Record) : ระบบการสำรองที่นั่งเข้าร่วมกิจกรรมศิษย์เก่าคืนสู่เหย้า 15 ปี
+    <t>คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา</t>
+  </si>
+  <si>
+    <t>ลงชื่อ……………………………………………………..</t>
+  </si>
+  <si>
+    <t>(………………..……………………………………..…..)</t>
+  </si>
+  <si>
+    <t>RE01: สามารถดาวน์โหลดทั้งตัวโปรเจคและเอกสาร</t>
+  </si>
+  <si>
+    <t>RE02: มีการจัดเก็บโปรเจคเป็นหมวดหมู่</t>
+  </si>
+  <si>
+    <t>RE04: มีส่วนติดต่อกับแอดมิน</t>
+  </si>
+  <si>
+    <t>RE05: มีระบบ Login</t>
+  </si>
+  <si>
+    <t>RE06: มีระบบสมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>UC04: ดาวน์โหลดแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC01: กรณีดาวน์โหลดแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>function : app_download_doc, app_download_file</t>
+  </si>
+  <si>
+    <t>UC07: ดูหมวดหมู่แอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC02: กรณีดูหมวกหมู่แอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC06: ค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE03: สามารถค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC12: ส่งข้อความ</t>
+  </si>
+  <si>
+    <t>TC03: กรณีค้นหาแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC05: กรณีส่งข้อความ</t>
+  </si>
+  <si>
+    <t>UC01: กรอกชื่อผู้ใช้และรหัสผ่าน</t>
+  </si>
+  <si>
+    <t>function : search</t>
+  </si>
+  <si>
+    <t>UC08: สมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>function : register</t>
+  </si>
+  <si>
+    <t>TC07: กรณีสมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>TC06: กรณี login</t>
+  </si>
+  <si>
+    <t>RE08: สามารถให้คะแนนแอพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE07: สามารถสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC09: สร้าง ลบ แก้ไขกลุ่มโปรเจค                     </t>
+  </si>
+  <si>
+    <t>RE09: สามารถสร้าง ลบ แก้ไขแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC10: อัพโหลดรายละเอียดและรูปภาพของแอฟพลิเคชั่น                 UC11: อัพโหลดแอปพลิเคชั่น           UC13: ลบแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>UC05: ให้คะแนนแอปพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC08: กรณีสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
+  </si>
+  <si>
+    <t>TC09: กรณีให้คะแนนแอปพลิชั่น</t>
+  </si>
+  <si>
+    <t>TC10: กรณีสร้าง ลบ แก้ไขแอพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>RE10: สมาชิกสามารถเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>UC02: สมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>TC11: กรณีสมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>RE11: สมาชิกแก้ไขข้อมูลของตนเอง</t>
+  </si>
+  <si>
+    <t>UC03 : จัดการข้อมมูลสมาชิก</t>
+  </si>
+  <si>
+    <t>TC12: กรณีสามชิกแก้ไขข้อมูลของตนเอง</t>
+  </si>
+  <si>
+    <t>function : index_app, get_page, slids_max_view, get_page_index_top_vote, get_page_index_top_view</t>
+  </si>
+  <si>
+    <t>function : __construct, is_valid, log</t>
+  </si>
+  <si>
+    <t>function : pm</t>
+  </si>
+  <si>
+    <t>function : vote</t>
+  </si>
+  <si>
+    <t>function : edit_profile</t>
+  </si>
+  <si>
+    <t>function : group, edit_profile_group</t>
+  </si>
+  <si>
+    <t>function : group, edit_profile_app, add_project ,delete_profile_app</t>
+  </si>
+  <si>
+    <t>function : comment, delete_comment, edit_comment</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>app_list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เอกสารการตามรอยซอฟต์แวร์ (Traceability Record) : ICT APP HOUSE คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา
 คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา
 </t>
-  </si>
-  <si>
-    <t>คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา</t>
-  </si>
-  <si>
-    <t>ลงชื่อ……………………………………………………..</t>
-  </si>
-  <si>
-    <t>(………………..……………………………………..…..)</t>
-  </si>
-  <si>
-    <t>RE01: สามารถดาวน์โหลดทั้งตัวโปรเจคและเอกสาร</t>
-  </si>
-  <si>
-    <t>RE02: มีการจัดเก็บโปรเจคเป็นหมวดหมู่</t>
-  </si>
-  <si>
-    <t>RE04: มีส่วนติดต่อกับแอดมิน</t>
-  </si>
-  <si>
-    <t>RE05: มีระบบ Login</t>
-  </si>
-  <si>
-    <t>RE06: มีระบบสมัครสมาชิก</t>
-  </si>
-  <si>
-    <t>UC04: ดาวน์โหลดแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>TC01: กรณีดาวน์โหลดแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>function : app_download_doc, app_download_file</t>
-  </si>
-  <si>
-    <t>UC07: ดูหมวดหมู่แอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>TC02: กรณีดูหมวกหมู่แอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>UC06: ค้นหาแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>RE03: สามารถค้นหาแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>UC12: ส่งข้อความ</t>
-  </si>
-  <si>
-    <t>TC03: กรณีค้นหาแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>TC05: กรณีส่งข้อความ</t>
-  </si>
-  <si>
-    <t>UC01: กรอกชื่อผู้ใช้และรหัสผ่าน</t>
-  </si>
-  <si>
-    <t>function : search</t>
-  </si>
-  <si>
-    <t>UC08: สมัครสมาชิก</t>
-  </si>
-  <si>
-    <t>function : register</t>
-  </si>
-  <si>
-    <t>TC07: กรณีสมัครสมาชิก</t>
-  </si>
-  <si>
-    <t>TC06: กรณี login</t>
-  </si>
-  <si>
-    <t>RE08: สามารถให้คะแนนแอพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>RE07: สามารถสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UC09: สร้าง ลบ แก้ไขกลุ่มโปรเจค                     </t>
-  </si>
-  <si>
-    <t>RE09: สามารถสร้าง ลบ แก้ไขแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>UC10: อัพโหลดรายละเอียดและรูปภาพของแอฟพลิเคชั่น                 UC11: อัพโหลดแอปพลิเคชั่น           UC13: ลบแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>UC05: ให้คะแนนแอปพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>TC08: กรณีสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
-  </si>
-  <si>
-    <t>TC09: กรณีให้คะแนนแอปพลิชั่น</t>
-  </si>
-  <si>
-    <t>TC10: กรณีสร้าง ลบ แก้ไขแอพลิเคชั่น</t>
-  </si>
-  <si>
-    <t>RE10: สมาชิกสามารถเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
-  </si>
-  <si>
-    <t>UC02: สมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
-  </si>
-  <si>
-    <t>TC11: กรณีสมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
-  </si>
-  <si>
-    <t>RE11: สมาชิกแก้ไขข้อมูลของตนเอง</t>
-  </si>
-  <si>
-    <t>UC03 : จัดการข้อมมูลสมาชิก</t>
-  </si>
-  <si>
-    <t>TC12: กรณีสามชิกแก้ไขข้อมูลของตนเอง</t>
-  </si>
-  <si>
-    <t>function : index_app, get_page, slids_max_view, get_page_index_top_vote, get_page_index_top_view</t>
-  </si>
-  <si>
-    <t>function : __construct, is_valid, log</t>
-  </si>
-  <si>
-    <t>function : pm</t>
-  </si>
-  <si>
-    <t>function : vote</t>
-  </si>
-  <si>
-    <t>function : edit_profile</t>
-  </si>
-  <si>
-    <t>function : group, edit_profile_group</t>
-  </si>
-  <si>
-    <t>function : group, edit_profile_app, add_project ,delete_profile_app</t>
-  </si>
-  <si>
-    <t>function : comment, delete_comment, edit_comment</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>app_list</t>
   </si>
 </sst>
 </file>
@@ -331,13 +331,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -645,7 +645,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -675,24 +675,24 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" ht="22.5">
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="22.5">
       <c r="B4" s="1" t="s">
@@ -719,19 +719,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90">
@@ -739,19 +739,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1">
@@ -759,19 +759,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" customHeight="1">
@@ -779,19 +779,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" customHeight="1">
@@ -799,19 +799,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.75" customHeight="1">
@@ -819,19 +819,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -839,17 +839,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45">
@@ -857,17 +857,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90">
@@ -875,19 +875,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="67.5">
@@ -895,19 +895,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -915,46 +915,46 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="G17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="G19" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="G20" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
+++ b/เอกสารแนบ ISO complete/ICT_RMS07 (Traceability Record).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>TC03: กรณีค้นหาแอปพลิเคชั่น</t>
   </si>
   <si>
-    <t>TC05: กรณีส่งข้อความ</t>
-  </si>
-  <si>
     <t>UC01: กรอกชื่อผู้ใช้และรหัสผ่าน</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
     <t>function : register</t>
   </si>
   <si>
-    <t>TC07: กรณีสมัครสมาชิก</t>
-  </si>
-  <si>
-    <t>TC06: กรณี login</t>
-  </si>
-  <si>
     <t>RE08: สามารถให้คะแนนแอพลิเคชั่น</t>
   </si>
   <si>
@@ -146,31 +137,16 @@
     <t>UC05: ให้คะแนนแอปพลิเคชั่น</t>
   </si>
   <si>
-    <t>TC08: กรณีสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
-  </si>
-  <si>
-    <t>TC09: กรณีให้คะแนนแอปพลิชั่น</t>
-  </si>
-  <si>
-    <t>TC10: กรณีสร้าง ลบ แก้ไขแอพลิเคชั่น</t>
-  </si>
-  <si>
     <t>RE10: สมาชิกสามารถเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
   </si>
   <si>
     <t>UC02: สมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
   </si>
   <si>
-    <t>TC11: กรณีสมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
-  </si>
-  <si>
     <t>RE11: สมาชิกแก้ไขข้อมูลของตนเอง</t>
   </si>
   <si>
     <t>UC03 : จัดการข้อมมูลสมาชิก</t>
-  </si>
-  <si>
-    <t>TC12: กรณีสามชิกแก้ไขข้อมูลของตนเอง</t>
   </si>
   <si>
     <t>function : index_app, get_page, slids_max_view, get_page_index_top_vote, get_page_index_top_view</t>
@@ -212,6 +188,30 @@
     <t xml:space="preserve">เอกสารการตามรอยซอฟต์แวร์ (Traceability Record) : ICT APP HOUSE คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา
 คณะเทคโนโลยีสารสนเทศและการสื่อสาร มหาวิทยาลัยพะเยา
 </t>
+  </si>
+  <si>
+    <t>TC04: กรณีส่งข้อความ</t>
+  </si>
+  <si>
+    <t>TC05: กรณี login</t>
+  </si>
+  <si>
+    <t>TC06: กรณีสมัครสมาชิก</t>
+  </si>
+  <si>
+    <t>TC07: กรณีสร้าง ลบ แก้ไขกลุ่มโปรเจค</t>
+  </si>
+  <si>
+    <t>TC08: กรณีให้คะแนนแอปพลิชั่น</t>
+  </si>
+  <si>
+    <t>TC09: กรณีสร้าง ลบ แก้ไขแอพลิเคชั่น</t>
+  </si>
+  <si>
+    <t>TC10: กรณีสมาชิกเพิ่ม ลบ แก้ไขความคิดเห็นของตนเอง</t>
+  </si>
+  <si>
+    <t>TC11: กรณีสามชิกแก้ไขข้อมูลของตนเอง</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -676,7 +676,7 @@
     </row>
     <row r="2" spans="1:7" ht="22.5">
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -745,10 +745,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>23</v>
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
@@ -785,13 +785,13 @@
         <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="47.25" customHeight="1">
@@ -802,16 +802,16 @@
         <v>17</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.75" customHeight="1">
@@ -822,16 +822,16 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45">
@@ -839,17 +839,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45">
@@ -857,17 +857,17 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90">
@@ -875,19 +875,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="67.5">
@@ -895,19 +895,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
@@ -915,19 +915,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7">
